--- a/Data/ROY Data/rookies_02_03.xlsx
+++ b/Data/ROY Data/rookies_02_03.xlsx
@@ -906,19 +906,19 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>328</v>
+        <v>72</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -927,52 +927,52 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="O2">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="Q2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>19</v>
+      </c>
+      <c r="W2">
+        <v>0.3</v>
+      </c>
+      <c r="Y2">
+        <v>0.389</v>
+      </c>
+      <c r="Z2">
         <v>6</v>
       </c>
-      <c r="T2">
-        <v>17</v>
-      </c>
-      <c r="U2">
-        <v>59</v>
-      </c>
-      <c r="V2">
-        <v>51</v>
-      </c>
-      <c r="W2">
-        <v>0.283</v>
-      </c>
-      <c r="Y2">
-        <v>0.429</v>
-      </c>
-      <c r="Z2">
-        <v>7.5</v>
-      </c>
       <c r="AA2">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AB2">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AC2">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD2" t="s">
         <v>140</v>
@@ -995,76 +995,73 @@
         <v>27</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+      <c r="H3">
+        <v>106</v>
+      </c>
+      <c r="I3">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>105</v>
-      </c>
-      <c r="H3">
-        <v>831</v>
-      </c>
-      <c r="I3">
-        <v>106</v>
-      </c>
-      <c r="J3">
-        <v>172</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>71</v>
-      </c>
-      <c r="N3">
-        <v>96</v>
-      </c>
-      <c r="O3">
-        <v>56</v>
-      </c>
       <c r="P3">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="Q3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="T3">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="U3">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="V3">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="W3">
-        <v>0.616</v>
-      </c>
-      <c r="X3">
-        <v>0.375</v>
+        <v>0.6</v>
       </c>
       <c r="Y3">
-        <v>0.74</v>
+        <v>0.833</v>
       </c>
       <c r="Z3">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="AA3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AB3">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="AC3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="s">
         <v>140</v>
@@ -1179,76 +1176,76 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="H5">
-        <v>1884</v>
+        <v>682</v>
       </c>
       <c r="I5">
-        <v>247</v>
+        <v>96</v>
       </c>
       <c r="J5">
-        <v>530</v>
+        <v>206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="N5">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="O5">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="P5">
-        <v>477</v>
+        <v>165</v>
       </c>
       <c r="Q5">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="R5">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="S5">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="T5">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="U5">
-        <v>324</v>
+        <v>135</v>
       </c>
       <c r="V5">
-        <v>637</v>
+        <v>262</v>
       </c>
       <c r="W5">
         <v>0.466</v>
       </c>
       <c r="X5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.657</v>
+        <v>0.68</v>
       </c>
       <c r="Z5">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="AA5">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="AB5">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AC5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD5" t="s">
         <v>140</v>
@@ -1271,76 +1268,76 @@
         <v>21</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>861</v>
+        <v>81</v>
       </c>
       <c r="H6">
-        <v>26901</v>
+        <v>2049</v>
       </c>
       <c r="I6">
-        <v>5847</v>
+        <v>331</v>
       </c>
       <c r="J6">
-        <v>11221</v>
+        <v>618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2281</v>
+        <v>148</v>
       </c>
       <c r="N6">
-        <v>3158</v>
+        <v>192</v>
       </c>
       <c r="O6">
-        <v>2037</v>
+        <v>202</v>
       </c>
       <c r="P6">
-        <v>8192</v>
+        <v>609</v>
       </c>
       <c r="Q6">
-        <v>1928</v>
+        <v>106</v>
       </c>
       <c r="R6">
-        <v>765</v>
+        <v>59</v>
       </c>
       <c r="S6">
-        <v>346</v>
+        <v>50</v>
       </c>
       <c r="T6">
-        <v>1824</v>
+        <v>103</v>
       </c>
       <c r="U6">
-        <v>2612</v>
+        <v>224</v>
       </c>
       <c r="V6">
-        <v>13976</v>
+        <v>810</v>
       </c>
       <c r="W6">
-        <v>0.521</v>
+        <v>0.536</v>
       </c>
       <c r="X6">
-        <v>0.07099999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.722</v>
+        <v>0.771</v>
       </c>
       <c r="Z6">
-        <v>31.2</v>
+        <v>25.3</v>
       </c>
       <c r="AA6">
-        <v>16.2</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC6">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD6" t="s">
         <v>140</v>
@@ -1363,76 +1360,76 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H7">
-        <v>1946</v>
+        <v>1503</v>
       </c>
       <c r="I7">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="J7">
-        <v>622</v>
+        <v>464</v>
       </c>
       <c r="K7">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="L7">
-        <v>360</v>
+        <v>286</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="N7">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="O7">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P7">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="Q7">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="R7">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T7">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="U7">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="V7">
-        <v>646</v>
+        <v>528</v>
       </c>
       <c r="W7">
-        <v>0.344</v>
+        <v>0.369</v>
       </c>
       <c r="X7">
-        <v>0.333</v>
+        <v>0.353</v>
       </c>
       <c r="Y7">
-        <v>0.748</v>
+        <v>0.766</v>
       </c>
       <c r="Z7">
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="AA7">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AB7">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AC7">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD7" t="s">
         <v>140</v>
@@ -1455,76 +1452,76 @@
         <v>24</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>93</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
         <v>8</v>
       </c>
-      <c r="G8">
-        <v>465</v>
-      </c>
-      <c r="H8">
-        <v>9022</v>
-      </c>
-      <c r="I8">
-        <v>1174</v>
-      </c>
-      <c r="J8">
-        <v>2927</v>
-      </c>
-      <c r="K8">
-        <v>300</v>
-      </c>
-      <c r="L8">
-        <v>888</v>
-      </c>
-      <c r="M8">
-        <v>704</v>
-      </c>
-      <c r="N8">
-        <v>907</v>
-      </c>
       <c r="O8">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="P8">
-        <v>1288</v>
+        <v>18</v>
       </c>
       <c r="Q8">
-        <v>679</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>505</v>
+        <v>9</v>
       </c>
       <c r="U8">
-        <v>747</v>
+        <v>14</v>
       </c>
       <c r="V8">
-        <v>3352</v>
+        <v>30</v>
       </c>
       <c r="W8">
-        <v>0.401</v>
+        <v>0.343</v>
       </c>
       <c r="X8">
-        <v>0.338</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.776</v>
+        <v>0.75</v>
       </c>
       <c r="Z8">
-        <v>19.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA8">
-        <v>7.2</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="AC8">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD8" t="s">
         <v>140</v>
@@ -1547,76 +1544,76 @@
         <v>29</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="H9">
-        <v>1293</v>
+        <v>783</v>
       </c>
       <c r="I9">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="J9">
-        <v>488</v>
+        <v>296</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="N9">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="O9">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="P9">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="Q9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="R9">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="T9">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="U9">
-        <v>180</v>
+        <v>99</v>
       </c>
       <c r="V9">
-        <v>468</v>
+        <v>267</v>
       </c>
       <c r="W9">
-        <v>0.408</v>
+        <v>0.382</v>
       </c>
       <c r="X9">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
       <c r="Y9">
-        <v>0.663</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z9">
-        <v>10.2</v>
+        <v>12.6</v>
       </c>
       <c r="AA9">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="AB9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD9" t="s">
         <v>140</v>
@@ -1639,76 +1636,76 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>881</v>
+        <v>78</v>
       </c>
       <c r="H10">
-        <v>28333</v>
+        <v>2858</v>
       </c>
       <c r="I10">
-        <v>4596</v>
+        <v>429</v>
       </c>
       <c r="J10">
-        <v>10592</v>
+        <v>1032</v>
       </c>
       <c r="K10">
-        <v>746</v>
+        <v>34</v>
       </c>
       <c r="L10">
-        <v>2144</v>
+        <v>107</v>
       </c>
       <c r="M10">
-        <v>2492</v>
+        <v>309</v>
       </c>
       <c r="N10">
-        <v>2942</v>
+        <v>375</v>
       </c>
       <c r="O10">
-        <v>1103</v>
+        <v>135</v>
       </c>
       <c r="P10">
-        <v>4387</v>
+        <v>397</v>
       </c>
       <c r="Q10">
-        <v>2007</v>
+        <v>213</v>
       </c>
       <c r="R10">
-        <v>1163</v>
+        <v>137</v>
       </c>
       <c r="S10">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="T10">
-        <v>1594</v>
+        <v>192</v>
       </c>
       <c r="U10">
-        <v>2129</v>
+        <v>230</v>
       </c>
       <c r="V10">
-        <v>12430</v>
+        <v>1201</v>
       </c>
       <c r="W10">
-        <v>0.434</v>
+        <v>0.416</v>
       </c>
       <c r="X10">
-        <v>0.348</v>
+        <v>0.318</v>
       </c>
       <c r="Y10">
-        <v>0.847</v>
+        <v>0.824</v>
       </c>
       <c r="Z10">
-        <v>32.2</v>
+        <v>36.6</v>
       </c>
       <c r="AA10">
-        <v>14.1</v>
+        <v>15.4</v>
       </c>
       <c r="AB10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AC10">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="AD10" t="s">
         <v>140</v>
@@ -1731,76 +1728,76 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>809</v>
+        <v>72</v>
       </c>
       <c r="H11">
-        <v>17219</v>
+        <v>1514</v>
       </c>
       <c r="I11">
-        <v>2293</v>
+        <v>207</v>
       </c>
       <c r="J11">
-        <v>5686</v>
+        <v>572</v>
       </c>
       <c r="K11">
-        <v>911</v>
+        <v>50</v>
       </c>
       <c r="L11">
-        <v>2520</v>
+        <v>171</v>
       </c>
       <c r="M11">
-        <v>595</v>
+        <v>76</v>
       </c>
       <c r="N11">
-        <v>796</v>
+        <v>104</v>
       </c>
       <c r="O11">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="P11">
-        <v>1934</v>
+        <v>186</v>
       </c>
       <c r="Q11">
-        <v>658</v>
+        <v>93</v>
       </c>
       <c r="R11">
-        <v>288</v>
+        <v>21</v>
       </c>
       <c r="S11">
-        <v>408</v>
+        <v>43</v>
       </c>
       <c r="T11">
-        <v>528</v>
+        <v>77</v>
       </c>
       <c r="U11">
-        <v>1132</v>
+        <v>105</v>
       </c>
       <c r="V11">
-        <v>6092</v>
+        <v>540</v>
       </c>
       <c r="W11">
-        <v>0.403</v>
+        <v>0.362</v>
       </c>
       <c r="X11">
-        <v>0.362</v>
+        <v>0.292</v>
       </c>
       <c r="Y11">
-        <v>0.747</v>
+        <v>0.731</v>
       </c>
       <c r="Z11">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="AA11">
         <v>7.5</v>
       </c>
       <c r="AB11">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="AD11" t="s">
         <v>140</v>
@@ -1823,76 +1820,76 @@
         <v>24</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H12">
-        <v>4617</v>
+        <v>515</v>
       </c>
       <c r="I12">
-        <v>608</v>
+        <v>70</v>
       </c>
       <c r="J12">
-        <v>1517</v>
+        <v>170</v>
       </c>
       <c r="K12">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="L12">
-        <v>525</v>
+        <v>61</v>
       </c>
       <c r="M12">
-        <v>350</v>
+        <v>21</v>
       </c>
       <c r="N12">
-        <v>421</v>
+        <v>26</v>
       </c>
       <c r="O12">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="P12">
-        <v>405</v>
+        <v>43</v>
       </c>
       <c r="Q12">
-        <v>752</v>
+        <v>85</v>
       </c>
       <c r="R12">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="S12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="U12">
-        <v>514</v>
+        <v>66</v>
       </c>
       <c r="V12">
-        <v>1745</v>
+        <v>183</v>
       </c>
       <c r="W12">
-        <v>0.401</v>
+        <v>0.412</v>
       </c>
       <c r="X12">
-        <v>0.341</v>
+        <v>0.361</v>
       </c>
       <c r="Y12">
-        <v>0.831</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="Z12">
-        <v>15.4</v>
+        <v>10.3</v>
       </c>
       <c r="AA12">
-        <v>5.8</v>
+        <v>3.7</v>
       </c>
       <c r="AB12">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AC12">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD12" t="s">
         <v>140</v>
@@ -1915,76 +1912,76 @@
         <v>24</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>436</v>
+        <v>42</v>
       </c>
       <c r="H13">
-        <v>8509</v>
+        <v>647</v>
       </c>
       <c r="I13">
-        <v>1400</v>
+        <v>104</v>
       </c>
       <c r="J13">
-        <v>3393</v>
+        <v>271</v>
       </c>
       <c r="K13">
-        <v>331</v>
+        <v>25</v>
       </c>
       <c r="L13">
-        <v>972</v>
+        <v>84</v>
       </c>
       <c r="M13">
-        <v>547</v>
+        <v>37</v>
       </c>
       <c r="N13">
-        <v>657</v>
+        <v>46</v>
       </c>
       <c r="O13">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="P13">
-        <v>816</v>
+        <v>72</v>
       </c>
       <c r="Q13">
-        <v>775</v>
+        <v>40</v>
       </c>
       <c r="R13">
-        <v>341</v>
+        <v>26</v>
       </c>
       <c r="S13">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>552</v>
+        <v>42</v>
       </c>
       <c r="U13">
-        <v>733</v>
+        <v>54</v>
       </c>
       <c r="V13">
-        <v>3678</v>
+        <v>270</v>
       </c>
       <c r="W13">
-        <v>0.413</v>
+        <v>0.384</v>
       </c>
       <c r="X13">
-        <v>0.341</v>
+        <v>0.298</v>
       </c>
       <c r="Y13">
-        <v>0.833</v>
+        <v>0.804</v>
       </c>
       <c r="Z13">
-        <v>19.5</v>
+        <v>15.4</v>
       </c>
       <c r="AA13">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="AB13">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC13">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="s">
         <v>140</v>
@@ -2007,76 +2004,76 @@
         <v>22</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>986</v>
+        <v>82</v>
       </c>
       <c r="H14">
-        <v>27340</v>
+        <v>1305</v>
       </c>
       <c r="I14">
-        <v>3935</v>
+        <v>168</v>
       </c>
       <c r="J14">
-        <v>8926</v>
+        <v>417</v>
       </c>
       <c r="K14">
-        <v>1304</v>
+        <v>52</v>
       </c>
       <c r="L14">
-        <v>3460</v>
+        <v>150</v>
       </c>
       <c r="M14">
-        <v>1874</v>
+        <v>78</v>
       </c>
       <c r="N14">
-        <v>2333</v>
+        <v>100</v>
       </c>
       <c r="O14">
-        <v>698</v>
+        <v>66</v>
       </c>
       <c r="P14">
-        <v>4211</v>
+        <v>214</v>
       </c>
       <c r="Q14">
-        <v>2185</v>
+        <v>106</v>
       </c>
       <c r="R14">
-        <v>719</v>
+        <v>53</v>
       </c>
       <c r="S14">
-        <v>324</v>
+        <v>19</v>
       </c>
       <c r="T14">
-        <v>1369</v>
+        <v>86</v>
       </c>
       <c r="U14">
-        <v>1986</v>
+        <v>120</v>
       </c>
       <c r="V14">
-        <v>11048</v>
+        <v>466</v>
       </c>
       <c r="W14">
-        <v>0.441</v>
+        <v>0.403</v>
       </c>
       <c r="X14">
-        <v>0.377</v>
+        <v>0.347</v>
       </c>
       <c r="Y14">
-        <v>0.803</v>
+        <v>0.78</v>
       </c>
       <c r="Z14">
-        <v>27.7</v>
+        <v>15.9</v>
       </c>
       <c r="AA14">
-        <v>11.2</v>
+        <v>5.7</v>
       </c>
       <c r="AB14">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="AC14">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD14" t="s">
         <v>140</v>
@@ -2099,76 +2096,73 @@
         <v>24</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>375</v>
+        <v>52</v>
       </c>
       <c r="H15">
-        <v>6005</v>
+        <v>802</v>
       </c>
       <c r="I15">
-        <v>783</v>
+        <v>92</v>
       </c>
       <c r="J15">
-        <v>1702</v>
+        <v>186</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>426</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>682</v>
+        <v>74</v>
       </c>
       <c r="O15">
-        <v>448</v>
+        <v>64</v>
       </c>
       <c r="P15">
-        <v>1215</v>
+        <v>174</v>
       </c>
       <c r="Q15">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c r="R15">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="T15">
-        <v>392</v>
+        <v>50</v>
       </c>
       <c r="U15">
-        <v>765</v>
+        <v>95</v>
       </c>
       <c r="V15">
-        <v>1992</v>
+        <v>236</v>
       </c>
       <c r="W15">
-        <v>0.46</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="Y15">
-        <v>0.625</v>
+        <v>0.703</v>
       </c>
       <c r="Z15">
-        <v>16</v>
+        <v>15.4</v>
       </c>
       <c r="AA15">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="AB15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AC15">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="AD15" t="s">
         <v>140</v>
@@ -2191,76 +2185,73 @@
         <v>22</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>809</v>
+        <v>67</v>
       </c>
       <c r="H16">
-        <v>15572</v>
+        <v>1365</v>
       </c>
       <c r="I16">
-        <v>1107</v>
+        <v>66</v>
       </c>
       <c r="J16">
-        <v>2379</v>
+        <v>140</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>80</v>
+      </c>
+      <c r="N16">
+        <v>154</v>
+      </c>
+      <c r="O16">
+        <v>167</v>
+      </c>
+      <c r="P16">
+        <v>445</v>
+      </c>
+      <c r="Q16">
+        <v>34</v>
+      </c>
+      <c r="R16">
+        <v>38</v>
+      </c>
+      <c r="S16">
         <v>11</v>
       </c>
-      <c r="M16">
-        <v>1074</v>
-      </c>
-      <c r="N16">
-        <v>2036</v>
-      </c>
-      <c r="O16">
-        <v>1984</v>
-      </c>
-      <c r="P16">
-        <v>5765</v>
-      </c>
-      <c r="Q16">
-        <v>458</v>
-      </c>
-      <c r="R16">
-        <v>566</v>
-      </c>
-      <c r="S16">
-        <v>115</v>
-      </c>
       <c r="T16">
-        <v>897</v>
+        <v>52</v>
       </c>
       <c r="U16">
-        <v>1895</v>
+        <v>173</v>
       </c>
       <c r="V16">
-        <v>3289</v>
+        <v>212</v>
       </c>
       <c r="W16">
-        <v>0.465</v>
-      </c>
-      <c r="X16">
-        <v>0.091</v>
+        <v>0.471</v>
       </c>
       <c r="Y16">
-        <v>0.528</v>
+        <v>0.519</v>
       </c>
       <c r="Z16">
-        <v>19.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA16">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB16">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AC16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="s">
         <v>140</v>
@@ -2283,76 +2274,76 @@
         <v>24</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>527</v>
+        <v>49</v>
       </c>
       <c r="H17">
-        <v>7793</v>
+        <v>760</v>
       </c>
       <c r="I17">
-        <v>1049</v>
+        <v>70</v>
       </c>
       <c r="J17">
-        <v>2100</v>
+        <v>145</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="N17">
-        <v>737</v>
+        <v>56</v>
       </c>
       <c r="O17">
-        <v>910</v>
+        <v>66</v>
       </c>
       <c r="P17">
-        <v>2326</v>
+        <v>197</v>
       </c>
       <c r="Q17">
-        <v>196</v>
+        <v>9</v>
       </c>
       <c r="R17">
-        <v>242</v>
+        <v>22</v>
       </c>
       <c r="S17">
-        <v>448</v>
+        <v>52</v>
       </c>
       <c r="T17">
-        <v>357</v>
+        <v>27</v>
       </c>
       <c r="U17">
-        <v>1250</v>
+        <v>125</v>
       </c>
       <c r="V17">
-        <v>2465</v>
+        <v>169</v>
       </c>
       <c r="W17">
-        <v>0.5</v>
+        <v>0.483</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17">
-        <v>0.498</v>
+        <v>0.518</v>
       </c>
       <c r="Z17">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="AA17">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="AB17">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="s">
         <v>140</v>
@@ -2375,76 +2366,76 @@
         <v>25</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1057</v>
+        <v>69</v>
       </c>
       <c r="H18">
-        <v>26859</v>
+        <v>1431</v>
       </c>
       <c r="I18">
-        <v>4584</v>
+        <v>174</v>
       </c>
       <c r="J18">
-        <v>10262</v>
+        <v>397</v>
       </c>
       <c r="K18">
-        <v>1495</v>
+        <v>51</v>
       </c>
       <c r="L18">
-        <v>4055</v>
+        <v>148</v>
       </c>
       <c r="M18">
-        <v>3380</v>
+        <v>126</v>
       </c>
       <c r="N18">
-        <v>4089</v>
+        <v>171</v>
       </c>
       <c r="O18">
-        <v>685</v>
+        <v>47</v>
       </c>
       <c r="P18">
-        <v>3697</v>
+        <v>161</v>
       </c>
       <c r="Q18">
-        <v>4001</v>
+        <v>138</v>
       </c>
       <c r="R18">
-        <v>1392</v>
+        <v>96</v>
       </c>
       <c r="S18">
-        <v>319</v>
+        <v>17</v>
       </c>
       <c r="T18">
-        <v>2116</v>
+        <v>100</v>
       </c>
       <c r="U18">
-        <v>2212</v>
+        <v>170</v>
       </c>
       <c r="V18">
-        <v>14043</v>
+        <v>525</v>
       </c>
       <c r="W18">
-        <v>0.447</v>
+        <v>0.438</v>
       </c>
       <c r="X18">
-        <v>0.369</v>
+        <v>0.345</v>
       </c>
       <c r="Y18">
-        <v>0.827</v>
+        <v>0.737</v>
       </c>
       <c r="Z18">
-        <v>25.4</v>
+        <v>20.7</v>
       </c>
       <c r="AA18">
-        <v>13.3</v>
+        <v>7.6</v>
       </c>
       <c r="AB18">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="AC18">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="AD18" t="s">
         <v>140</v>
@@ -2467,76 +2458,76 @@
         <v>25</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>384</v>
+        <v>76</v>
       </c>
       <c r="H19">
-        <v>8824</v>
+        <v>2148</v>
       </c>
       <c r="I19">
-        <v>1424</v>
+        <v>350</v>
       </c>
       <c r="J19">
-        <v>3225</v>
+        <v>803</v>
       </c>
       <c r="K19">
-        <v>289</v>
+        <v>85</v>
       </c>
       <c r="L19">
-        <v>786</v>
+        <v>249</v>
       </c>
       <c r="M19">
-        <v>533</v>
+        <v>150</v>
       </c>
       <c r="N19">
-        <v>648</v>
+        <v>183</v>
       </c>
       <c r="O19">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="P19">
-        <v>941</v>
+        <v>238</v>
       </c>
       <c r="Q19">
-        <v>584</v>
+        <v>137</v>
       </c>
       <c r="R19">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="S19">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="T19">
-        <v>517</v>
+        <v>145</v>
       </c>
       <c r="U19">
-        <v>749</v>
+        <v>159</v>
       </c>
       <c r="V19">
-        <v>3670</v>
+        <v>935</v>
       </c>
       <c r="W19">
-        <v>0.442</v>
+        <v>0.436</v>
       </c>
       <c r="X19">
-        <v>0.368</v>
+        <v>0.341</v>
       </c>
       <c r="Y19">
-        <v>0.823</v>
+        <v>0.82</v>
       </c>
       <c r="Z19">
-        <v>23</v>
+        <v>28.3</v>
       </c>
       <c r="AA19">
-        <v>9.6</v>
+        <v>12.3</v>
       </c>
       <c r="AB19">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AC19">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AD19" t="s">
         <v>140</v>
@@ -2559,76 +2550,76 @@
         <v>21</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>70</v>
+      </c>
+      <c r="H20">
+        <v>1873</v>
+      </c>
+      <c r="I20">
+        <v>355</v>
+      </c>
+      <c r="J20">
+        <v>777</v>
+      </c>
+      <c r="K20">
         <v>14</v>
       </c>
-      <c r="G20">
-        <v>790</v>
-      </c>
-      <c r="H20">
-        <v>20127</v>
-      </c>
-      <c r="I20">
-        <v>3432</v>
-      </c>
-      <c r="J20">
-        <v>7435</v>
-      </c>
-      <c r="K20">
-        <v>88</v>
-      </c>
       <c r="L20">
-        <v>342</v>
+        <v>48</v>
       </c>
       <c r="M20">
-        <v>1701</v>
+        <v>151</v>
       </c>
       <c r="N20">
-        <v>2239</v>
+        <v>212</v>
       </c>
       <c r="O20">
-        <v>1878</v>
+        <v>163</v>
       </c>
       <c r="P20">
-        <v>5618</v>
+        <v>455</v>
       </c>
       <c r="Q20">
-        <v>896</v>
+        <v>83</v>
       </c>
       <c r="R20">
-        <v>544</v>
+        <v>53</v>
       </c>
       <c r="S20">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="T20">
-        <v>1158</v>
+        <v>150</v>
       </c>
       <c r="U20">
-        <v>1957</v>
+        <v>172</v>
       </c>
       <c r="V20">
-        <v>8653</v>
+        <v>875</v>
       </c>
       <c r="W20">
-        <v>0.462</v>
+        <v>0.457</v>
       </c>
       <c r="X20">
-        <v>0.257</v>
+        <v>0.292</v>
       </c>
       <c r="Y20">
-        <v>0.76</v>
+        <v>0.712</v>
       </c>
       <c r="Z20">
-        <v>25.5</v>
+        <v>26.8</v>
       </c>
       <c r="AA20">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AB20">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AC20">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD20" t="s">
         <v>140</v>
@@ -2651,73 +2642,73 @@
         <v>22</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>854</v>
+        <v>441</v>
       </c>
       <c r="I21">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="J21">
-        <v>286</v>
+        <v>153</v>
       </c>
       <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>38</v>
+      </c>
+      <c r="O21">
+        <v>21</v>
+      </c>
+      <c r="P21">
+        <v>53</v>
+      </c>
+      <c r="Q21">
+        <v>9</v>
+      </c>
+      <c r="R21">
         <v>7</v>
       </c>
-      <c r="L21">
-        <v>20</v>
-      </c>
-      <c r="M21">
-        <v>54</v>
-      </c>
-      <c r="N21">
-        <v>82</v>
-      </c>
-      <c r="O21">
-        <v>51</v>
-      </c>
-      <c r="P21">
-        <v>131</v>
-      </c>
-      <c r="Q21">
-        <v>16</v>
-      </c>
-      <c r="R21">
-        <v>15</v>
-      </c>
       <c r="S21">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="T21">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="U21">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="V21">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="W21">
-        <v>0.437</v>
+        <v>0.431</v>
       </c>
       <c r="X21">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="Y21">
-        <v>0.659</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="Z21">
-        <v>9.6</v>
+        <v>11.3</v>
       </c>
       <c r="AA21">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="AB21">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AC21">
         <v>0.2</v>
@@ -2835,76 +2826,76 @@
         <v>22</v>
       </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>82</v>
+      </c>
+      <c r="H23">
+        <v>2003</v>
+      </c>
+      <c r="I23">
+        <v>169</v>
+      </c>
+      <c r="J23">
+        <v>467</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>73</v>
+      </c>
+      <c r="N23">
+        <v>112</v>
+      </c>
+      <c r="O23">
+        <v>44</v>
+      </c>
+      <c r="P23">
+        <v>250</v>
+      </c>
+      <c r="Q23">
+        <v>277</v>
+      </c>
+      <c r="R23">
+        <v>80</v>
+      </c>
+      <c r="S23">
+        <v>15</v>
+      </c>
+      <c r="T23">
+        <v>157</v>
+      </c>
+      <c r="U23">
+        <v>250</v>
+      </c>
+      <c r="V23">
+        <v>418</v>
+      </c>
+      <c r="W23">
+        <v>0.362</v>
+      </c>
+      <c r="X23">
+        <v>0.25</v>
+      </c>
+      <c r="Y23">
+        <v>0.652</v>
+      </c>
+      <c r="Z23">
+        <v>24.4</v>
+      </c>
+      <c r="AA23">
+        <v>5.1</v>
+      </c>
+      <c r="AB23">
         <v>3</v>
       </c>
-      <c r="G23">
-        <v>140</v>
-      </c>
-      <c r="H23">
-        <v>3096</v>
-      </c>
-      <c r="I23">
-        <v>290</v>
-      </c>
-      <c r="J23">
-        <v>782</v>
-      </c>
-      <c r="K23">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <v>73</v>
-      </c>
-      <c r="M23">
-        <v>133</v>
-      </c>
-      <c r="N23">
-        <v>193</v>
-      </c>
-      <c r="O23">
-        <v>69</v>
-      </c>
-      <c r="P23">
-        <v>381</v>
-      </c>
-      <c r="Q23">
-        <v>428</v>
-      </c>
-      <c r="R23">
-        <v>126</v>
-      </c>
-      <c r="S23">
-        <v>25</v>
-      </c>
-      <c r="T23">
-        <v>250</v>
-      </c>
-      <c r="U23">
-        <v>401</v>
-      </c>
-      <c r="V23">
-        <v>733</v>
-      </c>
-      <c r="W23">
-        <v>0.371</v>
-      </c>
-      <c r="X23">
-        <v>0.274</v>
-      </c>
-      <c r="Y23">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="Z23">
-        <v>22.1</v>
-      </c>
-      <c r="AA23">
-        <v>5.2</v>
-      </c>
-      <c r="AB23">
-        <v>2.7</v>
-      </c>
       <c r="AC23">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AD23" t="s">
         <v>140</v>
@@ -3019,76 +3010,76 @@
         <v>20</v>
       </c>
       <c r="F25">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>965</v>
+        <v>80</v>
       </c>
       <c r="H25">
-        <v>25237</v>
+        <v>2258</v>
       </c>
       <c r="I25">
-        <v>4175</v>
+        <v>321</v>
       </c>
       <c r="J25">
-        <v>7621</v>
+        <v>619</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>2552</v>
+        <v>197</v>
       </c>
       <c r="N25">
-        <v>3864</v>
+        <v>341</v>
       </c>
       <c r="O25">
-        <v>1688</v>
+        <v>208</v>
       </c>
       <c r="P25">
-        <v>5828</v>
+        <v>491</v>
       </c>
       <c r="Q25">
-        <v>1719</v>
+        <v>149</v>
       </c>
       <c r="R25">
-        <v>1041</v>
+        <v>127</v>
       </c>
       <c r="S25">
-        <v>721</v>
+        <v>65</v>
       </c>
       <c r="T25">
-        <v>1688</v>
+        <v>181</v>
       </c>
       <c r="U25">
-        <v>2934</v>
+        <v>295</v>
       </c>
       <c r="V25">
-        <v>10909</v>
+        <v>839</v>
       </c>
       <c r="W25">
-        <v>0.548</v>
+        <v>0.519</v>
       </c>
       <c r="X25">
-        <v>0.132</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.66</v>
+        <v>0.578</v>
       </c>
       <c r="Z25">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="AA25">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="AB25">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AD25" t="s">
         <v>140</v>
@@ -3200,73 +3191,70 @@
         <v>23</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H27">
-        <v>772</v>
+        <v>444</v>
       </c>
       <c r="I27">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="J27">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N27">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="O27">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="P27">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="Q27">
+        <v>11</v>
+      </c>
+      <c r="R27">
+        <v>9</v>
+      </c>
+      <c r="S27">
         <v>18</v>
       </c>
-      <c r="R27">
-        <v>20</v>
-      </c>
-      <c r="S27">
-        <v>19</v>
-      </c>
       <c r="T27">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="U27">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="V27">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="W27">
-        <v>0.344</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="Y27">
-        <v>0.539</v>
+        <v>0.59</v>
       </c>
       <c r="Z27">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AA27">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AB27">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AC27">
         <v>0.2</v>
@@ -3292,76 +3280,76 @@
         <v>21</v>
       </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>287</v>
+        <v>72</v>
       </c>
       <c r="H28">
-        <v>5320</v>
+        <v>1147</v>
       </c>
       <c r="I28">
-        <v>476</v>
+        <v>122</v>
       </c>
       <c r="J28">
-        <v>1210</v>
+        <v>327</v>
       </c>
       <c r="K28">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="L28">
-        <v>594</v>
+        <v>165</v>
       </c>
       <c r="M28">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="N28">
-        <v>425</v>
+        <v>105</v>
       </c>
       <c r="O28">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="P28">
-        <v>516</v>
+        <v>83</v>
       </c>
       <c r="Q28">
-        <v>304</v>
+        <v>73</v>
       </c>
       <c r="R28">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="S28">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="U28">
-        <v>372</v>
+        <v>90</v>
       </c>
       <c r="V28">
-        <v>1488</v>
+        <v>368</v>
       </c>
       <c r="W28">
-        <v>0.393</v>
+        <v>0.373</v>
       </c>
       <c r="X28">
-        <v>0.352</v>
+        <v>0.315</v>
       </c>
       <c r="Y28">
-        <v>0.769</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="Z28">
-        <v>18.5</v>
+        <v>15.9</v>
       </c>
       <c r="AA28">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB28">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AC28">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="s">
         <v>140</v>
@@ -3384,76 +3372,76 @@
         <v>24</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>447</v>
+        <v>66</v>
       </c>
       <c r="H29">
-        <v>11246</v>
+        <v>1379</v>
       </c>
       <c r="I29">
-        <v>1190</v>
+        <v>179</v>
       </c>
       <c r="J29">
-        <v>2944</v>
+        <v>446</v>
       </c>
       <c r="K29">
-        <v>289</v>
+        <v>53</v>
       </c>
       <c r="L29">
-        <v>840</v>
+        <v>166</v>
       </c>
       <c r="M29">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="N29">
-        <v>718</v>
+        <v>105</v>
       </c>
       <c r="O29">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="P29">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="Q29">
-        <v>1600</v>
+        <v>193</v>
       </c>
       <c r="R29">
-        <v>583</v>
+        <v>97</v>
       </c>
       <c r="S29">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="T29">
-        <v>708</v>
+        <v>103</v>
       </c>
       <c r="U29">
-        <v>967</v>
+        <v>125</v>
       </c>
       <c r="V29">
-        <v>3193</v>
+        <v>490</v>
       </c>
       <c r="W29">
-        <v>0.404</v>
+        <v>0.401</v>
       </c>
       <c r="X29">
-        <v>0.344</v>
+        <v>0.319</v>
       </c>
       <c r="Y29">
-        <v>0.73</v>
+        <v>0.752</v>
       </c>
       <c r="Z29">
-        <v>25.2</v>
+        <v>20.9</v>
       </c>
       <c r="AA29">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AB29">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AC29">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="s">
         <v>140</v>
@@ -3476,67 +3464,67 @@
         <v>22</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H30">
-        <v>861</v>
+        <v>666</v>
       </c>
       <c r="I30">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J30">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="K30">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="L30">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N30">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="O30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="P30">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="R30">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S30">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="T30">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="U30">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="V30">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c r="W30">
-        <v>0.383</v>
+        <v>0.387</v>
       </c>
       <c r="X30">
-        <v>0.365</v>
+        <v>0.333</v>
       </c>
       <c r="Y30">
-        <v>0.667</v>
+        <v>0.674</v>
       </c>
       <c r="Z30">
-        <v>12</v>
+        <v>13.1</v>
       </c>
       <c r="AA30">
         <v>3.9</v>
@@ -3568,76 +3556,76 @@
         <v>21</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>629</v>
+        <v>20</v>
       </c>
       <c r="H31">
-        <v>13579</v>
+        <v>292</v>
       </c>
       <c r="I31">
-        <v>1163</v>
+        <v>30</v>
       </c>
       <c r="J31">
-        <v>2728</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>604</v>
+        <v>16</v>
       </c>
       <c r="N31">
-        <v>1036</v>
+        <v>29</v>
       </c>
       <c r="O31">
-        <v>1166</v>
+        <v>26</v>
       </c>
       <c r="P31">
-        <v>2563</v>
+        <v>58</v>
       </c>
       <c r="Q31">
-        <v>798</v>
+        <v>16</v>
       </c>
       <c r="R31">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="S31">
-        <v>323</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>674</v>
+        <v>21</v>
       </c>
       <c r="U31">
-        <v>1529</v>
+        <v>28</v>
       </c>
       <c r="V31">
-        <v>3003</v>
+        <v>79</v>
       </c>
       <c r="W31">
-        <v>0.426</v>
+        <v>0.476</v>
       </c>
       <c r="X31">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
-        <v>0.583</v>
+        <v>0.552</v>
       </c>
       <c r="Z31">
-        <v>21.6</v>
+        <v>14.6</v>
       </c>
       <c r="AA31">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AB31">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="AC31">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AD31" t="s">
         <v>140</v>
@@ -3749,76 +3737,76 @@
         <v>23</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>19</v>
+      </c>
+      <c r="H33">
+        <v>115</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>24</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
         <v>7</v>
       </c>
-      <c r="G33">
-        <v>430</v>
-      </c>
-      <c r="H33">
-        <v>10299</v>
-      </c>
-      <c r="I33">
-        <v>1090</v>
-      </c>
-      <c r="J33">
-        <v>2651</v>
-      </c>
-      <c r="K33">
-        <v>346</v>
-      </c>
-      <c r="L33">
-        <v>979</v>
-      </c>
       <c r="M33">
-        <v>680</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>841</v>
+        <v>4</v>
       </c>
       <c r="O33">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="P33">
-        <v>958</v>
+        <v>9</v>
       </c>
       <c r="Q33">
-        <v>990</v>
+        <v>5</v>
       </c>
       <c r="R33">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="S33">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>511</v>
+        <v>6</v>
       </c>
       <c r="U33">
-        <v>831</v>
+        <v>13</v>
       </c>
       <c r="V33">
-        <v>3206</v>
+        <v>23</v>
       </c>
       <c r="W33">
-        <v>0.411</v>
+        <v>0.375</v>
       </c>
       <c r="X33">
-        <v>0.353</v>
+        <v>0.286</v>
       </c>
       <c r="Y33">
-        <v>0.8090000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z33">
-        <v>24</v>
+        <v>6.1</v>
       </c>
       <c r="AA33">
-        <v>7.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB33">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="AC33">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="AD33" t="s">
         <v>140</v>
@@ -3841,19 +3829,19 @@
         <v>23</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="I34">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J34">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3862,55 +3850,55 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N34">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O34">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P34">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R34">
         <v>7</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T34">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="U34">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V34">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="W34">
-        <v>0.463</v>
+        <v>0.434</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.6909999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="Z34">
-        <v>12.2</v>
+        <v>13.9</v>
       </c>
       <c r="AA34">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AB34">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC34">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD34" t="s">
         <v>140</v>
@@ -4025,76 +4013,76 @@
         <v>22</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>518</v>
+        <v>17</v>
       </c>
       <c r="H36">
-        <v>9147</v>
+        <v>113</v>
       </c>
       <c r="I36">
-        <v>1196</v>
+        <v>11</v>
       </c>
       <c r="J36">
-        <v>2933</v>
+        <v>31</v>
       </c>
       <c r="K36">
-        <v>594</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>1549</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="P36">
-        <v>897</v>
+        <v>12</v>
       </c>
       <c r="Q36">
-        <v>677</v>
+        <v>12</v>
       </c>
       <c r="R36">
-        <v>189</v>
+        <v>4</v>
       </c>
       <c r="S36">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>370</v>
+        <v>5</v>
       </c>
       <c r="U36">
-        <v>709</v>
+        <v>20</v>
       </c>
       <c r="V36">
-        <v>3289</v>
+        <v>30</v>
       </c>
       <c r="W36">
-        <v>0.408</v>
+        <v>0.355</v>
       </c>
       <c r="X36">
-        <v>0.383</v>
+        <v>0.333</v>
       </c>
       <c r="Y36">
-        <v>0.866</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>17.7</v>
+        <v>6.6</v>
       </c>
       <c r="AA36">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="AB36">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="AC36">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD36" t="s">
         <v>140</v>
@@ -4117,76 +4105,76 @@
         <v>22</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>486</v>
+        <v>82</v>
       </c>
       <c r="H37">
-        <v>15818</v>
+        <v>2382</v>
       </c>
       <c r="I37">
-        <v>3380</v>
+        <v>401</v>
       </c>
       <c r="J37">
-        <v>6445</v>
+        <v>805</v>
       </c>
       <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
         <v>2</v>
       </c>
-      <c r="L37">
-        <v>10</v>
-      </c>
       <c r="M37">
-        <v>2485</v>
+        <v>301</v>
       </c>
       <c r="N37">
-        <v>2984</v>
+        <v>371</v>
       </c>
       <c r="O37">
-        <v>1233</v>
+        <v>196</v>
       </c>
       <c r="P37">
-        <v>4494</v>
+        <v>675</v>
       </c>
       <c r="Q37">
-        <v>769</v>
+        <v>137</v>
       </c>
       <c r="R37">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="S37">
-        <v>920</v>
+        <v>147</v>
       </c>
       <c r="T37">
-        <v>1311</v>
+        <v>173</v>
       </c>
       <c r="U37">
-        <v>1596</v>
+        <v>230</v>
       </c>
       <c r="V37">
-        <v>9247</v>
+        <v>1104</v>
       </c>
       <c r="W37">
-        <v>0.524</v>
+        <v>0.498</v>
       </c>
       <c r="X37">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="Y37">
-        <v>0.833</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z37">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="AA37">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AB37">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC37">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD37" t="s">
         <v>140</v>
@@ -4209,76 +4197,76 @@
         <v>23</v>
       </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>62</v>
+      </c>
+      <c r="I38">
+        <v>11</v>
+      </c>
+      <c r="J38">
+        <v>31</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
+      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="N38">
         <v>8</v>
       </c>
-      <c r="G38">
-        <v>487</v>
-      </c>
-      <c r="H38">
-        <v>11077</v>
-      </c>
-      <c r="I38">
-        <v>1806</v>
-      </c>
-      <c r="J38">
-        <v>4360</v>
-      </c>
-      <c r="K38">
-        <v>328</v>
-      </c>
-      <c r="L38">
-        <v>1079</v>
-      </c>
-      <c r="M38">
-        <v>877</v>
-      </c>
-      <c r="N38">
-        <v>1210</v>
-      </c>
       <c r="O38">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>1006</v>
+        <v>4</v>
       </c>
       <c r="Q38">
-        <v>1096</v>
+        <v>5</v>
       </c>
       <c r="R38">
-        <v>404</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>742</v>
+        <v>8</v>
       </c>
       <c r="U38">
-        <v>795</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>4817</v>
+        <v>27</v>
       </c>
       <c r="W38">
-        <v>0.414</v>
+        <v>0.355</v>
       </c>
       <c r="X38">
-        <v>0.304</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.725</v>
+        <v>0.625</v>
       </c>
       <c r="Z38">
-        <v>22.7</v>
+        <v>4.4</v>
       </c>
       <c r="AA38">
-        <v>9.9</v>
+        <v>1.9</v>
       </c>
       <c r="AB38">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="AC38">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD38" t="s">
         <v>140</v>
@@ -4301,76 +4289,76 @@
         <v>22</v>
       </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>77</v>
+      </c>
+      <c r="I39">
+        <v>11</v>
+      </c>
+      <c r="J39">
+        <v>31</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="N39">
+        <v>10</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>11</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
         <v>6</v>
       </c>
-      <c r="G39">
-        <v>317</v>
-      </c>
-      <c r="H39">
-        <v>5628</v>
-      </c>
-      <c r="I39">
-        <v>744</v>
-      </c>
-      <c r="J39">
-        <v>1834</v>
-      </c>
-      <c r="K39">
-        <v>325</v>
-      </c>
-      <c r="L39">
-        <v>867</v>
-      </c>
-      <c r="M39">
-        <v>439</v>
-      </c>
-      <c r="N39">
-        <v>560</v>
-      </c>
-      <c r="O39">
-        <v>126</v>
-      </c>
-      <c r="P39">
-        <v>836</v>
-      </c>
-      <c r="Q39">
-        <v>283</v>
-      </c>
-      <c r="R39">
-        <v>135</v>
-      </c>
-      <c r="S39">
-        <v>84</v>
-      </c>
-      <c r="T39">
-        <v>280</v>
-      </c>
       <c r="U39">
-        <v>698</v>
+        <v>13</v>
       </c>
       <c r="V39">
-        <v>2252</v>
+        <v>29</v>
       </c>
       <c r="W39">
-        <v>0.406</v>
+        <v>0.355</v>
       </c>
       <c r="X39">
-        <v>0.375</v>
+        <v>0.2</v>
       </c>
       <c r="Y39">
-        <v>0.784</v>
+        <v>0.5</v>
       </c>
       <c r="Z39">
-        <v>17.8</v>
+        <v>5.5</v>
       </c>
       <c r="AA39">
-        <v>7.1</v>
+        <v>2.1</v>
       </c>
       <c r="AB39">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="AD39" t="s">
         <v>140</v>
@@ -4393,76 +4381,76 @@
         <v>23</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>634</v>
+        <v>72</v>
       </c>
       <c r="H40">
-        <v>18429</v>
+        <v>1366</v>
       </c>
       <c r="I40">
-        <v>3028</v>
+        <v>180</v>
       </c>
       <c r="J40">
-        <v>6615</v>
+        <v>423</v>
       </c>
       <c r="K40">
-        <v>596</v>
+        <v>38</v>
       </c>
       <c r="L40">
-        <v>1590</v>
+        <v>112</v>
       </c>
       <c r="M40">
-        <v>1909</v>
+        <v>96</v>
       </c>
       <c r="N40">
-        <v>2396</v>
+        <v>131</v>
       </c>
       <c r="O40">
-        <v>1261</v>
+        <v>117</v>
       </c>
       <c r="P40">
-        <v>4436</v>
+        <v>335</v>
       </c>
       <c r="Q40">
-        <v>1089</v>
+        <v>71</v>
       </c>
       <c r="R40">
-        <v>329</v>
+        <v>25</v>
       </c>
       <c r="S40">
-        <v>453</v>
+        <v>39</v>
       </c>
       <c r="T40">
-        <v>991</v>
+        <v>66</v>
       </c>
       <c r="U40">
-        <v>1815</v>
+        <v>167</v>
       </c>
       <c r="V40">
-        <v>8561</v>
+        <v>494</v>
       </c>
       <c r="W40">
-        <v>0.458</v>
+        <v>0.426</v>
       </c>
       <c r="X40">
-        <v>0.375</v>
+        <v>0.339</v>
       </c>
       <c r="Y40">
-        <v>0.797</v>
+        <v>0.733</v>
       </c>
       <c r="Z40">
-        <v>29.1</v>
+        <v>19</v>
       </c>
       <c r="AA40">
-        <v>13.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB40">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="AC40">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="s">
         <v>140</v>
@@ -4571,76 +4559,76 @@
         <v>23</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>499</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>7449</v>
+        <v>342</v>
       </c>
       <c r="I42">
-        <v>1228</v>
+        <v>37</v>
       </c>
       <c r="J42">
-        <v>3140</v>
+        <v>93</v>
       </c>
       <c r="K42">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="L42">
-        <v>1124</v>
+        <v>24</v>
       </c>
       <c r="M42">
-        <v>319</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>369</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="P42">
-        <v>701</v>
+        <v>37</v>
       </c>
       <c r="Q42">
-        <v>986</v>
+        <v>39</v>
       </c>
       <c r="R42">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="S42">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>560</v>
+        <v>23</v>
       </c>
       <c r="U42">
-        <v>648</v>
+        <v>45</v>
       </c>
       <c r="V42">
-        <v>3175</v>
+        <v>85</v>
       </c>
       <c r="W42">
-        <v>0.391</v>
+        <v>0.398</v>
       </c>
       <c r="X42">
-        <v>0.356</v>
+        <v>0.292</v>
       </c>
       <c r="Y42">
-        <v>0.864</v>
+        <v>1</v>
       </c>
       <c r="Z42">
-        <v>14.9</v>
+        <v>10.1</v>
       </c>
       <c r="AA42">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="AB42">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="AD42" t="s">
         <v>140</v>
@@ -4663,76 +4651,76 @@
         <v>21</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>274</v>
+        <v>66</v>
       </c>
       <c r="H43">
-        <v>7069</v>
+        <v>1103</v>
       </c>
       <c r="I43">
-        <v>908</v>
+        <v>136</v>
       </c>
       <c r="J43">
-        <v>2129</v>
+        <v>338</v>
       </c>
       <c r="K43">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="L43">
-        <v>838</v>
+        <v>118</v>
       </c>
       <c r="M43">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="N43">
-        <v>514</v>
+        <v>118</v>
       </c>
       <c r="O43">
+        <v>29</v>
+      </c>
+      <c r="P43">
         <v>119</v>
       </c>
-      <c r="P43">
-        <v>659</v>
-      </c>
       <c r="Q43">
-        <v>791</v>
+        <v>162</v>
       </c>
       <c r="R43">
-        <v>336</v>
+        <v>48</v>
       </c>
       <c r="S43">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="T43">
-        <v>496</v>
+        <v>133</v>
       </c>
       <c r="U43">
-        <v>606</v>
+        <v>106</v>
       </c>
       <c r="V43">
-        <v>2469</v>
+        <v>408</v>
       </c>
       <c r="W43">
-        <v>0.426</v>
+        <v>0.402</v>
       </c>
       <c r="X43">
-        <v>0.345</v>
+        <v>0.322</v>
       </c>
       <c r="Y43">
-        <v>0.708</v>
+        <v>0.831</v>
       </c>
       <c r="Z43">
-        <v>25.8</v>
+        <v>16.7</v>
       </c>
       <c r="AA43">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="AB43">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC43">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="AD43" t="s">
         <v>140</v>
@@ -4755,76 +4743,76 @@
         <v>22</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>42</v>
+      </c>
+      <c r="H44">
+        <v>435</v>
+      </c>
+      <c r="I44">
+        <v>53</v>
+      </c>
+      <c r="J44">
+        <v>118</v>
+      </c>
+      <c r="K44">
+        <v>20</v>
+      </c>
+      <c r="L44">
+        <v>47</v>
+      </c>
+      <c r="M44">
+        <v>11</v>
+      </c>
+      <c r="N44">
+        <v>17</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44">
+        <v>45</v>
+      </c>
+      <c r="Q44">
+        <v>24</v>
+      </c>
+      <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="S44">
         <v>14</v>
       </c>
-      <c r="G44">
-        <v>1017</v>
-      </c>
-      <c r="H44">
-        <v>31576</v>
-      </c>
-      <c r="I44">
-        <v>4583</v>
-      </c>
-      <c r="J44">
-        <v>10082</v>
-      </c>
-      <c r="K44">
-        <v>569</v>
-      </c>
-      <c r="L44">
-        <v>1550</v>
-      </c>
-      <c r="M44">
-        <v>1537</v>
-      </c>
-      <c r="N44">
-        <v>2033</v>
-      </c>
-      <c r="O44">
-        <v>1125</v>
-      </c>
-      <c r="P44">
-        <v>4332</v>
-      </c>
-      <c r="Q44">
-        <v>2406</v>
-      </c>
-      <c r="R44">
-        <v>571</v>
-      </c>
-      <c r="S44">
-        <v>500</v>
-      </c>
       <c r="T44">
-        <v>1064</v>
+        <v>21</v>
       </c>
       <c r="U44">
-        <v>1251</v>
+        <v>25</v>
       </c>
       <c r="V44">
-        <v>11272</v>
+        <v>137</v>
       </c>
       <c r="W44">
-        <v>0.455</v>
+        <v>0.449</v>
       </c>
       <c r="X44">
-        <v>0.367</v>
+        <v>0.426</v>
       </c>
       <c r="Y44">
-        <v>0.756</v>
+        <v>0.647</v>
       </c>
       <c r="Z44">
-        <v>31</v>
+        <v>10.4</v>
       </c>
       <c r="AA44">
-        <v>11.1</v>
+        <v>3.3</v>
       </c>
       <c r="AB44">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="AC44">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD44" t="s">
         <v>140</v>
@@ -5203,76 +5191,76 @@
         <v>22</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>346</v>
+        <v>76</v>
       </c>
       <c r="H49">
-        <v>5956</v>
+        <v>872</v>
       </c>
       <c r="I49">
-        <v>876</v>
+        <v>96</v>
       </c>
       <c r="J49">
-        <v>2189</v>
+        <v>244</v>
       </c>
       <c r="K49">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="L49">
-        <v>805</v>
+        <v>68</v>
       </c>
       <c r="M49">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="N49">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="O49">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="P49">
-        <v>572</v>
+        <v>94</v>
       </c>
       <c r="Q49">
-        <v>353</v>
+        <v>68</v>
       </c>
       <c r="R49">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="S49">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="T49">
-        <v>298</v>
+        <v>63</v>
       </c>
       <c r="U49">
-        <v>459</v>
+        <v>71</v>
       </c>
       <c r="V49">
-        <v>2213</v>
+        <v>227</v>
       </c>
       <c r="W49">
-        <v>0.4</v>
+        <v>0.393</v>
       </c>
       <c r="X49">
-        <v>0.358</v>
+        <v>0.279</v>
       </c>
       <c r="Y49">
-        <v>0.703</v>
+        <v>0.696</v>
       </c>
       <c r="Z49">
-        <v>17.2</v>
+        <v>11.5</v>
       </c>
       <c r="AA49">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="AB49">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AC49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AD49" t="s">
         <v>140</v>
@@ -5295,76 +5283,76 @@
         <v>23</v>
       </c>
       <c r="F50">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>895</v>
+        <v>64</v>
       </c>
       <c r="H50">
-        <v>23672</v>
+        <v>504</v>
       </c>
       <c r="I50">
-        <v>3007</v>
+        <v>48</v>
       </c>
       <c r="J50">
-        <v>6979</v>
+        <v>116</v>
       </c>
       <c r="K50">
-        <v>726</v>
+        <v>10</v>
       </c>
       <c r="L50">
-        <v>1986</v>
+        <v>31</v>
       </c>
       <c r="M50">
-        <v>1552</v>
+        <v>26</v>
       </c>
       <c r="N50">
-        <v>1942</v>
+        <v>35</v>
       </c>
       <c r="O50">
-        <v>435</v>
+        <v>16</v>
       </c>
       <c r="P50">
-        <v>2603</v>
+        <v>59</v>
       </c>
       <c r="Q50">
-        <v>2183</v>
+        <v>47</v>
       </c>
       <c r="R50">
-        <v>756</v>
+        <v>17</v>
       </c>
       <c r="S50">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="T50">
-        <v>1185</v>
+        <v>29</v>
       </c>
       <c r="U50">
-        <v>1667</v>
+        <v>53</v>
       </c>
       <c r="V50">
-        <v>8292</v>
+        <v>132</v>
       </c>
       <c r="W50">
-        <v>0.431</v>
+        <v>0.414</v>
       </c>
       <c r="X50">
-        <v>0.366</v>
+        <v>0.323</v>
       </c>
       <c r="Y50">
-        <v>0.799</v>
+        <v>0.743</v>
       </c>
       <c r="Z50">
-        <v>26.4</v>
+        <v>7.9</v>
       </c>
       <c r="AA50">
-        <v>9.300000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="AB50">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="AC50">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD50" t="s">
         <v>140</v>
@@ -5387,76 +5375,70 @@
         <v>19</v>
       </c>
       <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>5</v>
       </c>
-      <c r="G51">
-        <v>72</v>
-      </c>
       <c r="H51">
-        <v>631</v>
+        <v>8</v>
       </c>
       <c r="I51">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O51">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="P51">
-        <v>242</v>
+        <v>2</v>
       </c>
       <c r="Q51">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="R51">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S51">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="T51">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="U51">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>0.491</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0.537</v>
+        <v>0</v>
       </c>
       <c r="Z51">
-        <v>8.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="AA51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="AC51">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD51" t="s">
         <v>140</v>
@@ -5571,76 +5553,70 @@
         <v>25</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="I53">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="K53">
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U53">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>0.395</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0.429</v>
+        <v>0</v>
       </c>
       <c r="Z53">
-        <v>6.7</v>
+        <v>2.5</v>
       </c>
       <c r="AA53">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AC53">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AD53" t="s">
         <v>140</v>
@@ -5663,76 +5639,76 @@
         <v>22</v>
       </c>
       <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>36</v>
+      </c>
+      <c r="H54">
+        <v>274</v>
+      </c>
+      <c r="I54">
+        <v>39</v>
+      </c>
+      <c r="J54">
+        <v>103</v>
+      </c>
+      <c r="K54">
+        <v>7</v>
+      </c>
+      <c r="L54">
+        <v>25</v>
+      </c>
+      <c r="M54">
+        <v>7</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>8</v>
+      </c>
+      <c r="P54">
+        <v>31</v>
+      </c>
+      <c r="Q54">
+        <v>14</v>
+      </c>
+      <c r="R54">
+        <v>14</v>
+      </c>
+      <c r="S54">
         <v>3</v>
       </c>
-      <c r="G54">
-        <v>66</v>
-      </c>
-      <c r="H54">
-        <v>517</v>
-      </c>
-      <c r="I54">
-        <v>73</v>
-      </c>
-      <c r="J54">
-        <v>202</v>
-      </c>
-      <c r="K54">
-        <v>13</v>
-      </c>
-      <c r="L54">
-        <v>49</v>
-      </c>
-      <c r="M54">
-        <v>14</v>
-      </c>
-      <c r="N54">
-        <v>26</v>
-      </c>
-      <c r="O54">
-        <v>24</v>
-      </c>
-      <c r="P54">
-        <v>70</v>
-      </c>
-      <c r="Q54">
+      <c r="T54">
+        <v>20</v>
+      </c>
+      <c r="U54">
         <v>31</v>
       </c>
-      <c r="R54">
-        <v>26</v>
-      </c>
-      <c r="S54">
-        <v>4</v>
-      </c>
-      <c r="T54">
-        <v>39</v>
-      </c>
-      <c r="U54">
-        <v>71</v>
-      </c>
       <c r="V54">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="W54">
-        <v>0.361</v>
+        <v>0.379</v>
       </c>
       <c r="X54">
-        <v>0.265</v>
+        <v>0.28</v>
       </c>
       <c r="Y54">
-        <v>0.538</v>
+        <v>0.7</v>
       </c>
       <c r="Z54">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA54">
         <v>2.6</v>
       </c>
       <c r="AB54">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="AC54">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD54" t="s">
         <v>140</v>
@@ -5755,76 +5731,76 @@
         <v>20</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>846</v>
+        <v>82</v>
       </c>
       <c r="H55">
-        <v>26254</v>
+        <v>2570</v>
       </c>
       <c r="I55">
-        <v>5911</v>
+        <v>392</v>
       </c>
       <c r="J55">
-        <v>11009</v>
+        <v>830</v>
       </c>
       <c r="K55">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="M55">
-        <v>4142</v>
+        <v>320</v>
       </c>
       <c r="N55">
-        <v>5444</v>
+        <v>484</v>
       </c>
       <c r="O55">
-        <v>2029</v>
+        <v>250</v>
       </c>
       <c r="P55">
-        <v>6632</v>
+        <v>721</v>
       </c>
       <c r="Q55">
-        <v>1050</v>
+        <v>78</v>
       </c>
       <c r="R55">
-        <v>636</v>
+        <v>62</v>
       </c>
       <c r="S55">
-        <v>1054</v>
+        <v>87</v>
       </c>
       <c r="T55">
-        <v>1953</v>
+        <v>189</v>
       </c>
       <c r="U55">
-        <v>2685</v>
+        <v>269</v>
       </c>
       <c r="V55">
-        <v>15994</v>
+        <v>1106</v>
       </c>
       <c r="W55">
-        <v>0.537</v>
+        <v>0.472</v>
       </c>
       <c r="X55">
-        <v>0.236</v>
+        <v>0.2</v>
       </c>
       <c r="Y55">
-        <v>0.761</v>
+        <v>0.661</v>
       </c>
       <c r="Z55">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="AA55">
-        <v>18.9</v>
+        <v>13.5</v>
       </c>
       <c r="AB55">
-        <v>7.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC55">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AD55" t="s">
         <v>140</v>
@@ -5847,19 +5823,19 @@
         <v>23</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H56">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I56">
         <v>5</v>
       </c>
       <c r="J56">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5868,52 +5844,52 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O56">
         <v>6</v>
       </c>
       <c r="P56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T56">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U56">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="V56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="W56">
-        <v>0.208</v>
+        <v>0.25</v>
       </c>
       <c r="Y56">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="Z56">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="AA56">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AB56">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AC56">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD56" t="s">
         <v>140</v>
@@ -5936,76 +5912,76 @@
         <v>19</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="H57">
-        <v>1946</v>
+        <v>1320</v>
       </c>
       <c r="I57">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="J57">
-        <v>626</v>
+        <v>393</v>
       </c>
       <c r="K57">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L57">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="M57">
+        <v>48</v>
+      </c>
+      <c r="N57">
+        <v>65</v>
+      </c>
+      <c r="O57">
+        <v>64</v>
+      </c>
+      <c r="P57">
+        <v>181</v>
+      </c>
+      <c r="Q57">
+        <v>91</v>
+      </c>
+      <c r="R57">
+        <v>31</v>
+      </c>
+      <c r="S57">
+        <v>29</v>
+      </c>
+      <c r="T57">
         <v>84</v>
       </c>
-      <c r="N57">
-        <v>115</v>
-      </c>
-      <c r="O57">
-        <v>109</v>
-      </c>
-      <c r="P57">
-        <v>307</v>
-      </c>
-      <c r="Q57">
-        <v>114</v>
-      </c>
-      <c r="R57">
-        <v>46</v>
-      </c>
-      <c r="S57">
-        <v>50</v>
-      </c>
-      <c r="T57">
-        <v>126</v>
-      </c>
       <c r="U57">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="V57">
-        <v>507</v>
+        <v>315</v>
       </c>
       <c r="W57">
-        <v>0.304</v>
+        <v>0.293</v>
       </c>
       <c r="X57">
-        <v>0.235</v>
+        <v>0.243</v>
       </c>
       <c r="Y57">
-        <v>0.73</v>
+        <v>0.738</v>
       </c>
       <c r="Z57">
-        <v>11.3</v>
+        <v>16.3</v>
       </c>
       <c r="AA57">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="AB57">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AC57">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD57" t="s">
         <v>140</v>
@@ -6028,76 +6004,76 @@
         <v>19</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="H58">
-        <v>2202</v>
+        <v>1385</v>
       </c>
       <c r="I58">
-        <v>354</v>
+        <v>223</v>
       </c>
       <c r="J58">
-        <v>967</v>
+        <v>605</v>
       </c>
       <c r="K58">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="L58">
-        <v>287</v>
+        <v>174</v>
       </c>
       <c r="M58">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="N58">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="O58">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="P58">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="Q58">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="R58">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="S58">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="T58">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="U58">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="V58">
-        <v>964</v>
+        <v>629</v>
       </c>
       <c r="W58">
-        <v>0.366</v>
+        <v>0.369</v>
       </c>
       <c r="X58">
-        <v>0.321</v>
+        <v>0.316</v>
       </c>
       <c r="Y58">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="Z58">
-        <v>21.4</v>
+        <v>29.5</v>
       </c>
       <c r="AA58">
-        <v>9.4</v>
+        <v>13.4</v>
       </c>
       <c r="AB58">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AC58">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="AD58" t="s">
         <v>140</v>
@@ -6120,76 +6096,76 @@
         <v>23</v>
       </c>
       <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>37</v>
+      </c>
+      <c r="H59">
+        <v>234</v>
+      </c>
+      <c r="I59">
+        <v>19</v>
+      </c>
+      <c r="J59">
+        <v>75</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
         <v>4</v>
       </c>
-      <c r="G59">
-        <v>247</v>
-      </c>
-      <c r="H59">
-        <v>4596</v>
-      </c>
-      <c r="I59">
-        <v>516</v>
-      </c>
-      <c r="J59">
-        <v>1280</v>
-      </c>
-      <c r="K59">
-        <v>118</v>
-      </c>
-      <c r="L59">
-        <v>344</v>
-      </c>
       <c r="M59">
-        <v>369</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>491</v>
+        <v>29</v>
       </c>
       <c r="O59">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="P59">
-        <v>602</v>
+        <v>28</v>
       </c>
       <c r="Q59">
-        <v>375</v>
+        <v>27</v>
       </c>
       <c r="R59">
-        <v>187</v>
+        <v>8</v>
       </c>
       <c r="S59">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="T59">
-        <v>262</v>
+        <v>19</v>
       </c>
       <c r="U59">
-        <v>394</v>
+        <v>32</v>
       </c>
       <c r="V59">
-        <v>1519</v>
+        <v>61</v>
       </c>
       <c r="W59">
-        <v>0.403</v>
+        <v>0.253</v>
       </c>
       <c r="X59">
-        <v>0.343</v>
+        <v>0.25</v>
       </c>
       <c r="Y59">
-        <v>0.752</v>
+        <v>0.759</v>
       </c>
       <c r="Z59">
-        <v>18.6</v>
+        <v>6.3</v>
       </c>
       <c r="AA59">
-        <v>6.1</v>
+        <v>1.6</v>
       </c>
       <c r="AB59">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC59">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD59" t="s">
         <v>140</v>
@@ -6212,76 +6188,73 @@
         <v>20</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>628</v>
+        <v>46</v>
       </c>
       <c r="H60">
-        <v>12474</v>
+        <v>479</v>
       </c>
       <c r="I60">
-        <v>2101</v>
+        <v>73</v>
       </c>
       <c r="J60">
-        <v>3884</v>
+        <v>140</v>
       </c>
       <c r="K60">
         <v>0</v>
       </c>
       <c r="L60">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>948</v>
+        <v>25</v>
       </c>
       <c r="N60">
-        <v>1474</v>
+        <v>50</v>
       </c>
       <c r="O60">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="P60">
-        <v>3076</v>
+        <v>104</v>
       </c>
       <c r="Q60">
-        <v>455</v>
+        <v>21</v>
       </c>
       <c r="R60">
-        <v>322</v>
+        <v>7</v>
       </c>
       <c r="S60">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="T60">
-        <v>705</v>
+        <v>26</v>
       </c>
       <c r="U60">
-        <v>1517</v>
+        <v>65</v>
       </c>
       <c r="V60">
-        <v>5150</v>
+        <v>171</v>
       </c>
       <c r="W60">
-        <v>0.541</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
+        <v>0.521</v>
       </c>
       <c r="Y60">
-        <v>0.643</v>
+        <v>0.5</v>
       </c>
       <c r="Z60">
-        <v>19.9</v>
+        <v>10.4</v>
       </c>
       <c r="AA60">
-        <v>8.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="AB60">
-        <v>4.9</v>
+        <v>2.3</v>
       </c>
       <c r="AC60">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="AD60" t="s">
         <v>140</v>
@@ -6304,76 +6277,76 @@
         <v>23</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="H61">
-        <v>2240</v>
+        <v>688</v>
       </c>
       <c r="I61">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="J61">
-        <v>540</v>
+        <v>148</v>
       </c>
       <c r="K61">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="L61">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="M61">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="N61">
-        <v>166</v>
+        <v>47</v>
       </c>
       <c r="O61">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="P61">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="Q61">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="R61">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="S61">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T61">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="U61">
-        <v>215</v>
+        <v>69</v>
       </c>
       <c r="V61">
-        <v>591</v>
+        <v>147</v>
       </c>
       <c r="W61">
-        <v>0.402</v>
+        <v>0.338</v>
       </c>
       <c r="X61">
-        <v>0.321</v>
+        <v>0.286</v>
       </c>
       <c r="Y61">
-        <v>0.741</v>
+        <v>0.787</v>
       </c>
       <c r="Z61">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AA61">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AC61">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AD61" t="s">
         <v>140</v>
@@ -6396,76 +6369,76 @@
         <v>22</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>21</v>
+      </c>
+      <c r="H62">
+        <v>167</v>
+      </c>
+      <c r="I62">
+        <v>9</v>
+      </c>
+      <c r="J62">
+        <v>33</v>
+      </c>
+      <c r="K62">
+        <v>6</v>
+      </c>
+      <c r="L62">
+        <v>16</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62">
+        <v>6</v>
+      </c>
+      <c r="O62">
         <v>3</v>
       </c>
-      <c r="G62">
-        <v>86</v>
-      </c>
-      <c r="H62">
-        <v>952</v>
-      </c>
-      <c r="I62">
-        <v>92</v>
-      </c>
-      <c r="J62">
-        <v>261</v>
-      </c>
-      <c r="K62">
-        <v>24</v>
-      </c>
-      <c r="L62">
-        <v>80</v>
-      </c>
-      <c r="M62">
-        <v>45</v>
-      </c>
-      <c r="N62">
-        <v>54</v>
-      </c>
-      <c r="O62">
-        <v>13</v>
-      </c>
       <c r="P62">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="Q62">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="R62">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="S62">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="U62">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="V62">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="W62">
-        <v>0.352</v>
+        <v>0.273</v>
       </c>
       <c r="X62">
-        <v>0.3</v>
+        <v>0.375</v>
       </c>
       <c r="Y62">
-        <v>0.833</v>
+        <v>0.667</v>
       </c>
       <c r="Z62">
-        <v>11.1</v>
+        <v>8</v>
       </c>
       <c r="AA62">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="AB62">
         <v>0.9</v>
       </c>
       <c r="AC62">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AD62" t="s">
         <v>140</v>
@@ -6580,76 +6553,76 @@
         <v>21</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="H64">
-        <v>2060</v>
+        <v>334</v>
       </c>
       <c r="I64">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="J64">
-        <v>621</v>
+        <v>118</v>
       </c>
       <c r="K64">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="L64">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="M64">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="N64">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="O64">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="P64">
-        <v>385</v>
+        <v>53</v>
       </c>
       <c r="Q64">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="R64">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="S64">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="U64">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="V64">
-        <v>691</v>
+        <v>128</v>
       </c>
       <c r="W64">
-        <v>0.452</v>
+        <v>0.5</v>
       </c>
       <c r="X64">
-        <v>0.357</v>
+        <v>0.333</v>
       </c>
       <c r="Y64">
-        <v>0.603</v>
+        <v>0.35</v>
       </c>
       <c r="Z64">
-        <v>12.3</v>
+        <v>6.3</v>
       </c>
       <c r="AA64">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="AB64">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD64" t="s">
         <v>140</v>
